--- a/test/templates/test-named-tables.xlsx
+++ b/test/templates/test-named-tables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="RangeRightOfTable">Tables!$E$12:$F$12</definedName>
     <definedName name="RightOfTable">Tables!$D$7</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,21 +37,9 @@
     <t>Age</t>
   </si>
   <si>
-    <t>${table:ages.name}</t>
-  </si>
-  <si>
-    <t>${table:ages.age}</t>
-  </si>
-  <si>
     <t>${days}</t>
   </si>
   <si>
-    <t>${table:hours.name}</t>
-  </si>
-  <si>
-    <t>${table:hours.days}</t>
-  </si>
-  <si>
     <t>${progress}</t>
   </si>
   <si>
@@ -71,13 +59,25 @@
   </si>
   <si>
     <t>Bad</t>
+  </si>
+  <si>
+    <t>${table:ages:name}</t>
+  </si>
+  <si>
+    <t>${table:ages:age}</t>
+  </si>
+  <si>
+    <t>${table:hours:name}</t>
+  </si>
+  <si>
+    <t>${table:hours:days}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -507,27 +507,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="E12:F12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20" thickBot="1">
+    <row r="2" spans="2:6" ht="20.25" thickBot="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:6" ht="16" thickTop="1"/>
+    <row r="3" spans="2:6" ht="16.5" thickTop="1"/>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>1</v>
@@ -538,10 +536,10 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -549,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>101</v>
@@ -561,10 +559,10 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -575,13 +573,13 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>107</v>
@@ -592,18 +590,18 @@
     </row>
     <row r="13" spans="2:6">
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:6">
